--- a/src/test/resources/formula.xlsx
+++ b/src/test/resources/formula.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eec\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="96" yWindow="120" windowWidth="15876" windowHeight="9540"/>
+    <workbookView xWindow="90" yWindow="120" windowWidth="15870" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>abcde</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,9 +74,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -75,11 +87,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -121,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -153,9 +173,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -362,14 +384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -377,8 +399,16 @@
         <f>(A1+A2)+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1">
+        <f>B2-A2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -386,8 +416,11 @@
         <f t="shared" ref="B2:B8" si="0">(A2+A3)+1</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -400,7 +433,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -409,7 +442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -418,7 +451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -427,7 +460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
@@ -440,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
@@ -449,7 +482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -458,7 +491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10</v>
       </c>
@@ -467,7 +500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>11</v>
       </c>
@@ -483,7 +516,7 @@
         <f t="shared" ref="D11" si="3">C11+1</f>
         <v>14</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f t="shared" ref="E11" si="4">D11+1</f>
         <v>15</v>
       </c>
@@ -508,7 +541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>12</v>
       </c>
@@ -516,8 +549,9 @@
         <f>A12+2</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>13</v>
       </c>
@@ -525,8 +559,9 @@
         <f>A13+2</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>14</v>
       </c>
@@ -534,8 +569,9 @@
         <f>A14+2</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>15</v>
       </c>
@@ -543,8 +579,9 @@
         <f>A15+2</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>16</v>
       </c>
@@ -552,8 +589,9 @@
         <f>A16+2</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>17</v>
       </c>
@@ -561,8 +599,9 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>18</v>
       </c>
@@ -570,8 +609,9 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>19</v>
       </c>
@@ -580,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20</v>
       </c>
@@ -589,7 +629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>21</v>
       </c>
@@ -598,7 +638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>22</v>
       </c>
@@ -607,7 +647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>23</v>
       </c>
@@ -616,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>24</v>
       </c>
@@ -625,7 +665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>25</v>
       </c>
@@ -634,7 +674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>26</v>
       </c>
@@ -643,7 +683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>27</v>
       </c>
@@ -652,7 +692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>28</v>
       </c>
@@ -661,7 +701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>29</v>
       </c>
@@ -670,7 +710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>30</v>
       </c>
@@ -679,7 +719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>31</v>
       </c>
@@ -688,7 +728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>32</v>
       </c>
@@ -697,7 +737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>33</v>
       </c>
@@ -706,7 +746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>34</v>
       </c>
@@ -715,7 +755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>35</v>
       </c>
@@ -724,7 +764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>36</v>
       </c>
@@ -733,7 +773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>37</v>
       </c>
@@ -742,7 +782,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>38</v>
       </c>
@@ -751,7 +791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>39</v>
       </c>
@@ -760,7 +800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>40</v>
       </c>
@@ -769,7 +809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>41</v>
       </c>
@@ -778,7 +818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>42</v>
       </c>
@@ -787,7 +827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>43</v>
       </c>
@@ -796,7 +836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>44</v>
       </c>
@@ -805,7 +845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>45</v>
       </c>
@@ -814,7 +854,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>46</v>
       </c>
@@ -823,7 +863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>47</v>
       </c>
@@ -832,7 +872,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>48</v>
       </c>
@@ -841,7 +881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>49</v>
       </c>
@@ -850,7 +890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>50</v>
       </c>
@@ -859,7 +899,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>51</v>
       </c>
@@ -868,7 +908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>52</v>
       </c>
@@ -877,7 +917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>53</v>
       </c>
@@ -886,7 +926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>54</v>
       </c>
@@ -895,7 +935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>55</v>
       </c>
@@ -904,16 +944,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>57</v>
       </c>
@@ -922,7 +964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>58</v>
       </c>
@@ -931,8 +973,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
         <v>59</v>
       </c>
       <c r="B59">
@@ -940,52 +982,42 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>60</v>
-      </c>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="1"/>
       <c r="B60">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>61</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>62</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
       <c r="B62">
         <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>63</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>64</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>65</v>
       </c>
@@ -994,7 +1026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>66</v>
       </c>
@@ -1003,7 +1035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1013,18 +1045,27 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1032,14 +1073,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>123</v>
       </c>
@@ -1048,7 +1089,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1057,12 +1098,12 @@
         <v>cde</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13">
         <f>B11</f>
         <v>1</v>
@@ -1088,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17">
         <f>B11</f>
         <v>1</v>
@@ -1114,25 +1155,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18">
         <f t="shared" ref="B18:B31" si="2">B12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1154,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1164,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -1174,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1184,13 +1225,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1200,31 +1241,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -1233,5 +1274,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>